--- a/docs/excel/PalacePersonnel.xlsx
+++ b/docs/excel/PalacePersonnel.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Palace Personnel" sheetId="1" r:id="rId1"/>
+    <sheet name="PalacePersonnel" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "Palace Personnel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>愉妃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +244,10 @@
   </si>
   <si>
     <t>Image/GameScene/halfbody/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "PalacePersonnel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -809,10 +809,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>37</v>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>39</v>
@@ -842,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>37</v>
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>38</v>
@@ -864,10 +864,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -875,10 +875,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -886,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>38</v>
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>39</v>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1725,7 +1725,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/PalacePersonnel.xlsx
+++ b/docs/excel/PalacePersonnel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="PalacePersonnel" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -249,13 +249,43 @@
   <si>
     <t>TableName: "PalacePersonnel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翡翠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛瑙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓兰</t>
+  </si>
+  <si>
+    <t>芷荷</t>
+  </si>
+  <si>
+    <t>香卉</t>
+  </si>
+  <si>
+    <t>秋春</t>
+  </si>
+  <si>
+    <t>绮兰</t>
+  </si>
+  <si>
+    <t>听兰</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -282,6 +312,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -321,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,6 +387,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -938,43 +977,43 @@
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>27</v>
@@ -982,10 +1021,10 @@
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>28</v>
@@ -993,63 +1032,129 @@
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
+        <v>202</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>203</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>204</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>205</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>300</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>301</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>302</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38"/>
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42"/>
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>303</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>304</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>305</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
     </row>
@@ -1696,6 +1801,27 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234"/>
+      <c r="B234"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236"/>
+      <c r="B236"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238"/>
+      <c r="B238"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1712,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/docs/excel/PalacePersonnel.xlsx
+++ b/docs/excel/PalacePersonnel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -279,6 +279,33 @@
   </si>
   <si>
     <t>听兰</t>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛儿</t>
+  </si>
+  <si>
+    <t>盼儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -734,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -805,11 +832,11 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>32</v>
+      <c r="B5" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>36</v>
@@ -834,10 +861,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>42</v>
@@ -847,11 +874,11 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>60</v>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -859,10 +886,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -947,10 +974,10 @@
         <v>100</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -958,10 +985,10 @@
         <v>101</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -969,43 +996,43 @@
         <v>102</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>103</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>65</v>
+      <c r="B20" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>104</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>66</v>
+      <c r="B21" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>105</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>67</v>
+      <c r="B22" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1013,7 +1040,7 @@
         <v>200</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>27</v>
@@ -1024,7 +1051,7 @@
         <v>201</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>28</v>
@@ -1035,10 +1062,10 @@
         <v>202</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1046,7 +1073,7 @@
         <v>203</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>27</v>
@@ -1057,7 +1084,7 @@
         <v>204</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>28</v>
@@ -1068,10 +1095,10 @@
         <v>205</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1079,10 +1106,10 @@
         <v>300</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1090,10 +1117,10 @@
         <v>301</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1101,43 +1128,109 @@
         <v>302</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>303</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>68</v>
+      <c r="B32" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>304</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>72</v>
+      <c r="B33" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>305</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>73</v>
+      <c r="B34" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>400</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>401</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>402</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>403</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>404</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>405</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/excel/PalacePersonnel.xlsx
+++ b/docs/excel/PalacePersonnel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -159,14 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乾隆的第二任皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为人嚣张跋扈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莫心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,30 +273,62 @@
     <t>听兰</t>
   </si>
   <si>
+    <t>宛儿</t>
+  </si>
+  <si>
+    <t>盼儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WholeBodyPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Image/GameScene/halfbody/17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宛儿</t>
-  </si>
-  <si>
-    <t>盼儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巧儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云儿</t>
+    <t>Image/GameScene/wholebody/master_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/wholebody/master_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/wholebody/master_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/wholebody/master_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格比较懦弱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为人嚣张跋扈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾隆的第二任皇后。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -770,10 +794,11 @@
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.796875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -783,17 +808,20 @@
       <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -806,15 +834,19 @@
       <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -824,25 +856,31 @@
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -852,11 +890,14 @@
       <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -866,11 +907,14 @@
       <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -880,228 +924,254 @@
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>100</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>101</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>102</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>103</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>104</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>105</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>200</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>201</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>202</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>203</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>204</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>205</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>300</v>
       </c>
@@ -1111,8 +1181,9 @@
       <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>301</v>
       </c>
@@ -1122,8 +1193,9 @@
       <c r="C30" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>302</v>
       </c>
@@ -1133,121 +1205,131 @@
       <c r="C31" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>303</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>304</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>305</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>400</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>401</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>402</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>403</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>404</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>405</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
     </row>
@@ -1944,7 +2026,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/PalacePersonnel.xlsx
+++ b/docs/excel/PalacePersonnel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -104,21 +104,9 @@
     <t>尔晴</t>
   </si>
   <si>
-    <t>Image/GameScene/Maid/maid_15</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_16</t>
-  </si>
-  <si>
     <t>Image/GameScene/Maid/maid_17</t>
   </si>
   <si>
-    <t>Image/GameScene/Maid/maid_18</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_19</t>
-  </si>
-  <si>
     <t>富察容音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,6 +317,50 @@
   </si>
   <si>
     <t>乾隆的第二任皇后。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Maid/maid_80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +818,7 @@
   <dimension ref="A1:G238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D8"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -806,19 +838,19 @@
         <v>22</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -860,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -868,16 +900,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -885,16 +917,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -902,16 +934,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -919,16 +951,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -936,10 +968,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10"/>
     </row>
@@ -948,10 +980,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10"/>
     </row>
@@ -960,10 +992,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -972,10 +1004,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="10"/>
     </row>
@@ -984,10 +1016,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" s="10"/>
     </row>
@@ -996,10 +1028,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D14" s="10"/>
     </row>
@@ -1008,10 +1040,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10"/>
     </row>
@@ -1020,10 +1052,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10"/>
     </row>
@@ -1032,10 +1064,10 @@
         <v>100</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -1044,10 +1076,10 @@
         <v>101</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -1056,10 +1088,10 @@
         <v>102</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -1068,10 +1100,10 @@
         <v>103</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -1080,10 +1112,10 @@
         <v>104</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -1092,10 +1124,10 @@
         <v>105</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -1104,10 +1136,10 @@
         <v>200</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -1116,10 +1148,10 @@
         <v>201</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -1128,10 +1160,10 @@
         <v>202</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -1140,10 +1172,10 @@
         <v>203</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -1152,10 +1184,10 @@
         <v>204</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -1164,10 +1196,10 @@
         <v>205</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -1179,7 +1211,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -1191,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D30" s="5"/>
     </row>
@@ -1203,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -1212,10 +1244,10 @@
         <v>303</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D32" s="5"/>
     </row>
@@ -1224,10 +1256,10 @@
         <v>304</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D33" s="5"/>
     </row>
@@ -1236,10 +1268,10 @@
         <v>305</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D34" s="5"/>
     </row>
@@ -1248,10 +1280,10 @@
         <v>400</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -1260,10 +1292,10 @@
         <v>401</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D36" s="5"/>
     </row>
@@ -1272,10 +1304,10 @@
         <v>402</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D37" s="5"/>
     </row>
@@ -1284,10 +1316,10 @@
         <v>403</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="5"/>
     </row>
@@ -1296,10 +1328,10 @@
         <v>404</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D39" s="5"/>
     </row>
@@ -1308,10 +1340,10 @@
         <v>405</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D40" s="5"/>
     </row>
@@ -2026,7 +2058,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
